--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_39.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_39.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1323"/>
+  <dimension ref="A1:N1324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.324695110321045</v>
+        <v>0.001946210861206055</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05689692497253418</v>
+        <v>0.0007040500640869141</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05819106101989746</v>
+        <v>0.1152760982513428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 0), (3, 3), (5, 2), (4, 2), (5, 1), (6, 4), (5, 5), (6, 3), (4, 4), (5, 6), (3, 5), (3, 6), (1, 5), (2, 4), (1, 3), (0, 5), (2, 6), (2, 3), (2, 2), (4, 5), (1, 4), (3, 4), (2, 5), (2, 0), (0, 6), (0, 4), (3, 2), (5, 4), (4, 6), (6, 6), (6, 5), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 0], [3, 3], [5, 2], [4, 2], [5, 1], [6, 4], [5, 5], [6, 3], [4, 4], [5, 6], [3, 5], [3, 6], [1, 5], [2, 4], [1, 3], [0, 5], [2, 6], [2, 3], [2, 2], [4, 5], [1, 4], [3, 4], [2, 5], [2, 0], [0, 6], [0, 4], [3, 2], [5, 4], [4, 6], [6, 6], [6, 5], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[(5, 2), (3, 3), (6, 3), (4, 2), (5, 1), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (6, 1), (2, 3), (2, 6), (0, 0), (1, 4), (4, 5), (2, 5), (3, 4), (1, 6), (0, 4), (0, 6), (4, 3), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[5, 2], [3, 3], [6, 3], [4, 2], [5, 1], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [6, 1], [2, 3], [2, 6], [0, 0], [1, 4], [4, 5], [2, 5], [3, 4], [1, 6], [0, 4], [0, 6], [4, 3], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>[(5, 2), (3, 3), (6, 3), (4, 2), (5, 1), (6, 4), (5, 5), (5, 6), (4, 4), (2, 3), (3, 5), (2, 0), (4, 0), (2, 1), (6, 1), (5, 3), (2, 2), (4, 3), (3, 4), (4, 5), (3, 2), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[5, 2], [3, 3], [6, 3], [4, 2], [5, 1], [6, 4], [5, 5], [5, 6], [4, 4], [2, 3], [3, 5], [2, 0], [4, 0], [2, 1], [6, 1], [5, 3], [2, 2], [4, 3], [3, 4], [4, 5], [3, 2], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (6, 3), (6, 4), (5, 1), (3, 6), (1, 5), (0, 5), (0, 6), (2, 0), (3, 1), (3, 0), (4, 0), (4, 1), (6, 1), (5, 3), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[5, 2], [4, 2], [6, 3], [6, 4], [5, 1], [3, 6], [1, 5], [0, 5], [0, 6], [2, 0], [3, 1], [3, 0], [4, 0], [4, 1], [6, 1], [5, 3], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (6, 3), (6, 4), (5, 1), (1, 6), (0, 6), (3, 2), (3, 3), (3, 0), (3, 1), (4, 0), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[5, 2], [4, 2], [6, 3], [6, 4], [5, 1], [1, 6], [0, 6], [3, 2], [3, 3], [3, 0], [3, 1], [4, 0], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (5, 1), (4, 1), (3, 2), (1, 6), (0, 6), (3, 0), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[5, 2], [4, 2], [5, 1], [4, 1], [3, 2], [1, 6], [0, 6], [3, 0], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -4765,7 +4765,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>[(5, 2), (3, 3), (3, 1), (4, 1), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[5, 2], [3, 3], [3, 1], [4, 1], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>[(3, 0), (3, 3), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[3, 0], [3, 3], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (4, 1), (3, 0)]</t>
+          <t>[[5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [4, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>[(6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (6, 6), (4, 2), (4, 3), (3, 2), (4, 1), (3, 0)]</t>
+          <t>[[6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [6, 6], [4, 2], [4, 3], [3, 2], [4, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9035,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>[(5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (6, 3), (5, 3), (6, 2), (6, 4), (4, 2), (4, 3), (3, 2), (4, 1), (3, 0)]</t>
+          <t>[[5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [6, 3], [5, 3], [6, 2], [6, 4], [4, 2], [4, 3], [3, 2], [4, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -9913,7 +9913,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>[(4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (3, 3), (4, 1), (5, 4), (6, 5), (6, 6), (6, 3), (5, 3), (6, 2), (6, 4), (4, 2), (4, 3), (3, 2), (3, 0), (3, 1)]</t>
+          <t>[[4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [3, 3], [4, 1], [5, 4], [6, 5], [6, 6], [6, 3], [5, 3], [6, 2], [6, 4], [4, 2], [4, 3], [3, 2], [3, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>[(2, 5), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 4), (4, 4), (4, 5), (4, 6), (3, 3), (4, 1), (5, 4), (6, 5), (6, 6), (6, 3), (5, 3), (6, 2), (6, 4), (4, 2), (4, 3), (3, 2), (3, 0), (3, 1)]</t>
+          <t>[[2, 5], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 4], [4, 4], [4, 5], [4, 6], [3, 3], [4, 1], [5, 4], [6, 5], [6, 6], [6, 3], [5, 3], [6, 2], [6, 4], [4, 2], [4, 3], [3, 2], [3, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>[(6, 3), (6, 2), (5, 1), (4, 1), (3, 2), (2, 2), (1, 1), (0, 1), (0, 2), (1, 2), (2, 1), (3, 1), (4, 2), (5, 2), (6, 1), (5, 3), (6, 4), (4, 3), (0, 0), (2, 6), (1, 0), (2, 3), (4, 4), (3, 3), (5, 0), (1, 5), (3, 0), (5, 4), (6, 5), (6, 6), (3, 4), (5, 5), (0, 3), (1, 3), (4, 0), (4, 5), (1, 4), (2, 0), (2, 4)]</t>
+          <t>[[6, 3], [6, 2], [5, 1], [4, 1], [3, 2], [2, 2], [1, 1], [0, 1], [0, 2], [1, 2], [2, 1], [3, 1], [4, 2], [5, 2], [6, 1], [5, 3], [6, 4], [4, 3], [0, 0], [2, 6], [1, 0], [2, 3], [4, 4], [3, 3], [5, 0], [1, 5], [3, 0], [5, 4], [6, 5], [6, 6], [3, 4], [5, 5], [0, 3], [1, 3], [4, 0], [4, 5], [1, 4], [2, 0], [2, 4]]</t>
         </is>
       </c>
     </row>
@@ -12209,7 +12209,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1), (3, 0), (4, 0), (0, 6), (0, 4), (5, 3), (6, 4), (4, 3), (1, 4), (2, 6), (2, 3), (2, 4), (4, 4), (3, 4), (0, 5), (1, 5), (4, 1), (3, 2), (3, 3), (0, 0), (2, 5), (5, 5), (1, 6), (3, 5), (4, 2), (4, 5), (3, 6), (5, 0), (4, 6)]</t>
+          <t>[[2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1], [3, 0], [4, 0], [0, 6], [0, 4], [5, 3], [6, 4], [4, 3], [1, 4], [2, 6], [2, 3], [2, 4], [4, 4], [3, 4], [0, 5], [1, 5], [4, 1], [3, 2], [3, 3], [0, 0], [2, 5], [5, 5], [1, 6], [3, 5], [4, 2], [4, 5], [3, 6], [5, 0], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -12872,7 +12872,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 2), (1, 1), (1, 0), (0, 1), (2, 2), (2, 3), (2, 0), (0, 6), (0, 4), (3, 3), (4, 0), (4, 1), (1, 6), (2, 4), (5, 3), (6, 4), (4, 3), (2, 5), (2, 6), (3, 4), (3, 5), (4, 4), (3, 6), (4, 5), (4, 6), (4, 2), (5, 2), (5, 1), (0, 5), (1, 5), (0, 0), (0, 3), (1, 3), (0, 2), (3, 0), (3, 1), (1, 4), (3, 2)]</t>
+          <t>[[2, 1], [1, 2], [1, 1], [1, 0], [0, 1], [2, 2], [2, 3], [2, 0], [0, 6], [0, 4], [3, 3], [4, 0], [4, 1], [1, 6], [2, 4], [5, 3], [6, 4], [4, 3], [2, 5], [2, 6], [3, 4], [3, 5], [4, 4], [3, 6], [4, 5], [4, 6], [4, 2], [5, 2], [5, 1], [0, 5], [1, 5], [0, 0], [0, 3], [1, 3], [0, 2], [3, 0], [3, 1], [1, 4], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -13311,110 +13311,120 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1319" t="n">
-        <v>217</v>
+        <v>0.9860902816909745</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1320" t="n">
-        <v>1076</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1321" t="n">
-        <v>16</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1322" t="n">
-        <v>6.575460195541382</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1323" t="n">
+        <v>0.2774050235748291</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1323" t="inlineStr">
+      <c r="B1324" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1323" t="inlineStr">
+      <c r="C1324" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1323" t="inlineStr">
+      <c r="D1324" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1323" t="inlineStr">
+      <c r="E1324" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1323" t="inlineStr">
+      <c r="F1324" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1323" t="inlineStr">
+      <c r="G1324" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
+      <c r="H1324" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1323" t="inlineStr">
+      <c r="I1324" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1323" t="inlineStr">
+      <c r="J1324" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1323" t="inlineStr">
+      <c r="K1324" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1323" t="inlineStr">
+      <c r="L1324" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1323" t="inlineStr">
+      <c r="M1324" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1323" t="inlineStr">
+      <c r="N1324" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
